--- a/bin/Debug/Archivos/Descripcionverificion1.2.xlsx
+++ b/bin/Debug/Archivos/Descripcionverificion1.2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VillarTechnologies\Desktop\ARCHIVOS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7170"/>
   </bookViews>
@@ -242,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -334,6 +329,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>75286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="38499"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2133600"/>
+          <a:ext cx="8001000" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,26 +449,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,23 +484,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,10 +662,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +770,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1212</v>
+        <v>26396613</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -867,7 +870,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1111</v>
+        <v>19254705</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>60</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1312</v>
+        <v>27344442</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>57</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>1213</v>
+        <v>26435340</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>58</v>
@@ -1088,7 +1091,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>2222</v>
+        <v>27031394</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>59</v>
@@ -1188,6 +1191,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
